--- a/Overzicht Projectadministratie.xlsx
+++ b/Overzicht Projectadministratie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bram.gerrits\Desktop\Automations\ProjectAdministration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A46D96-7A26-459F-AC52-6D95BD6AAA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A592BFA-91CF-4E5E-A00B-58BBDCDDE630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overzicht" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Projectnummer</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>Actiepunten Elders</t>
+  </si>
+  <si>
+    <t>2e Projectleider</t>
   </si>
 </sst>
 </file>
@@ -455,11 +458,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X1"/>
+  <dimension ref="A1:Y1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S1" sqref="S1:S1048576"/>
+      <selection pane="bottomLeft" activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -485,9 +488,10 @@
     <col min="22" max="22" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="17" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -559,6 +563,9 @@
       </c>
       <c r="X1" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Overzicht Projectadministratie.xlsx
+++ b/Overzicht Projectadministratie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bram.gerrits\Desktop\Automations\ProjectAdministration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A592BFA-91CF-4E5E-A00B-58BBDCDDE630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775569CB-2895-43B1-8A61-FE711E87126C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Overzicht" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Overzicht!$A$1:$U$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Overzicht!$A$1:$V$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Projectnummer</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>2e Projectleider</t>
+  </si>
+  <si>
+    <t>Werkelijk resultaat</t>
   </si>
 </sst>
 </file>
@@ -458,11 +461,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:Z1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y1" sqref="Y1"/>
+      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -477,21 +480,21 @@
     <col min="9" max="9" width="19.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="24.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="20.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="24.6640625" customWidth="1"/>
-    <col min="14" max="14" width="21.6640625" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" customWidth="1"/>
-    <col min="16" max="18" width="30.77734375" customWidth="1"/>
-    <col min="19" max="19" width="10.77734375" customWidth="1"/>
-    <col min="20" max="20" width="12.6640625" customWidth="1"/>
-    <col min="21" max="21" width="30.6640625" customWidth="1"/>
-    <col min="22" max="22" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17" customWidth="1"/>
+    <col min="12" max="13" width="20.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="24.6640625" customWidth="1"/>
+    <col min="15" max="15" width="21.6640625" customWidth="1"/>
+    <col min="16" max="16" width="18.6640625" customWidth="1"/>
+    <col min="17" max="19" width="30.77734375" customWidth="1"/>
+    <col min="20" max="20" width="10.77734375" customWidth="1"/>
+    <col min="21" max="21" width="12.6640625" customWidth="1"/>
+    <col min="22" max="22" width="30.6640625" customWidth="1"/>
+    <col min="23" max="23" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -529,47 +532,50 @@
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:V1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Overzicht Projectadministratie.xlsx
+++ b/Overzicht Projectadministratie.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bram.gerrits\Desktop\Automations\ProjectAdministration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775569CB-2895-43B1-8A61-FE711E87126C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8DE919-8698-438F-B122-ABAD08EC1DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overzicht" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Overzicht!$A$1:$V$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Overzicht!$A$1:$X$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Projectnummer</t>
   </si>
@@ -101,6 +101,27 @@
   </si>
   <si>
     <t>Werkelijk resultaat</t>
+  </si>
+  <si>
+    <t>Tier 1</t>
+  </si>
+  <si>
+    <t>Tier 2</t>
+  </si>
+  <si>
+    <t>Tier 3</t>
+  </si>
+  <si>
+    <t>Tier 4</t>
+  </si>
+  <si>
+    <t>Tier 5</t>
+  </si>
+  <si>
+    <t>Proto/Prod</t>
+  </si>
+  <si>
+    <t>Informatie</t>
   </si>
 </sst>
 </file>
@@ -110,7 +131,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\€#,##0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +143,12 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -461,11 +488,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1"/>
+  <dimension ref="A1:AG1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomLeft" activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,27 +501,27 @@
     <col min="2" max="2" width="44.6640625" customWidth="1"/>
     <col min="3" max="3" width="26.6640625" customWidth="1"/>
     <col min="4" max="4" width="55.6640625" customWidth="1"/>
-    <col min="5" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="13" width="20.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="24.6640625" customWidth="1"/>
-    <col min="15" max="15" width="21.6640625" customWidth="1"/>
-    <col min="16" max="16" width="18.6640625" customWidth="1"/>
-    <col min="17" max="19" width="30.77734375" customWidth="1"/>
-    <col min="20" max="20" width="10.77734375" customWidth="1"/>
-    <col min="21" max="21" width="12.6640625" customWidth="1"/>
-    <col min="22" max="22" width="30.6640625" customWidth="1"/>
-    <col min="23" max="23" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17" customWidth="1"/>
+    <col min="5" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="13" max="14" width="20.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="24.6640625" customWidth="1"/>
+    <col min="16" max="16" width="21.6640625" customWidth="1"/>
+    <col min="17" max="17" width="18.6640625" customWidth="1"/>
+    <col min="18" max="21" width="30.77734375" customWidth="1"/>
+    <col min="22" max="22" width="10.77734375" customWidth="1"/>
+    <col min="23" max="23" width="12.6640625" customWidth="1"/>
+    <col min="24" max="24" width="30.6640625" customWidth="1"/>
+    <col min="25" max="25" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -511,71 +538,93 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>24</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:X1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Overzicht Projectadministratie.xlsx
+++ b/Overzicht Projectadministratie.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bram.gerrits\Desktop\Automations\ProjectAdministration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8DE919-8698-438F-B122-ABAD08EC1DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F781C24-759C-4A4F-BD0F-407BF07A0B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overzicht" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Overzicht!$A$1:$X$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Overzicht!$A$1:$Z$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Projectnummer</t>
   </si>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <t>Informatie</t>
+  </si>
+  <si>
+    <t>Sluiten</t>
+  </si>
+  <si>
+    <t>Warning</t>
   </si>
 </sst>
 </file>
@@ -488,11 +494,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG1"/>
+  <dimension ref="A1:AI1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U2" sqref="U2"/>
+      <selection pane="bottomLeft" activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,18 +516,18 @@
     <col min="13" max="14" width="20.6640625" style="1" customWidth="1"/>
     <col min="15" max="15" width="24.6640625" customWidth="1"/>
     <col min="16" max="16" width="21.6640625" customWidth="1"/>
-    <col min="17" max="17" width="18.6640625" customWidth="1"/>
-    <col min="18" max="21" width="30.77734375" customWidth="1"/>
-    <col min="22" max="22" width="10.77734375" customWidth="1"/>
-    <col min="23" max="23" width="12.6640625" customWidth="1"/>
-    <col min="24" max="24" width="30.6640625" customWidth="1"/>
-    <col min="25" max="25" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17" customWidth="1"/>
+    <col min="17" max="18" width="18.6640625" customWidth="1"/>
+    <col min="19" max="23" width="30.77734375" customWidth="1"/>
+    <col min="24" max="24" width="10.77734375" customWidth="1"/>
+    <col min="25" max="25" width="12.6640625" customWidth="1"/>
+    <col min="26" max="26" width="30.6640625" customWidth="1"/>
+    <col min="27" max="27" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -574,56 +580,62 @@
         <v>14</v>
       </c>
       <c r="R1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:Z1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Overzicht Projectadministratie.xlsx
+++ b/Overzicht Projectadministratie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bram.gerrits\Desktop\Automations\ProjectAdministration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F781C24-759C-4A4F-BD0F-407BF07A0B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B88AB72-0E50-484C-8E1E-9AC000BA760A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Overzicht" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Overzicht!$A$1:$Z$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Overzicht!$A$1:$Y$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -94,9 +94,6 @@
     <t>Openstaande PO</t>
   </si>
   <si>
-    <t>Actiepunten Elders</t>
-  </si>
-  <si>
     <t>2e Projectleider</t>
   </si>
   <si>
@@ -128,6 +125,9 @@
   </si>
   <si>
     <t>Warning</t>
+  </si>
+  <si>
+    <t>Checklist</t>
   </si>
 </sst>
 </file>
@@ -496,9 +496,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U15" sqref="U15"/>
+      <selection pane="bottomLeft" activeCell="AJ20" sqref="AJ20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -517,14 +517,15 @@
     <col min="15" max="15" width="24.6640625" customWidth="1"/>
     <col min="16" max="16" width="21.6640625" customWidth="1"/>
     <col min="17" max="18" width="18.6640625" customWidth="1"/>
-    <col min="19" max="23" width="30.77734375" customWidth="1"/>
-    <col min="24" max="24" width="10.77734375" customWidth="1"/>
-    <col min="25" max="25" width="12.6640625" customWidth="1"/>
-    <col min="26" max="26" width="30.6640625" customWidth="1"/>
-    <col min="27" max="27" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17" customWidth="1"/>
+    <col min="19" max="22" width="30.77734375" customWidth="1"/>
+    <col min="23" max="23" width="10.77734375" customWidth="1"/>
+    <col min="24" max="24" width="12.6640625" customWidth="1"/>
+    <col min="25" max="25" width="30.6640625" customWidth="1"/>
+    <col min="26" max="26" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17" customWidth="1"/>
+    <col min="35" max="35" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -544,7 +545,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -568,7 +569,7 @@
         <v>11</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>12</v>
@@ -580,43 +581,43 @@
         <v>14</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="AD1" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE1" s="2" t="s">
         <v>26</v>
@@ -631,11 +632,11 @@
         <v>29</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:Y1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
